--- a/experiment_1_AB/experiment_1-results_grouped_an.xlsx
+++ b/experiment_1_AB/experiment_1-results_grouped_an.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/MapSonification/SoniUncertainty/pilot/soni_pilot_analysis/pilot_30_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/workspace/github/SonificationUncertainty/experiment_1_AB/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC01A583-037D-094C-8A81-4F7E2862C2D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="460" windowWidth="21700" windowHeight="14800" activeTab="1"/>
+    <workbookView xWindow="1340" yWindow="3740" windowWidth="21700" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis_stim" sheetId="1" r:id="rId1"/>
     <sheet name="table_for_paper" sheetId="3" r:id="rId2"/>
-    <sheet name="analysis_gender" sheetId="2" r:id="rId3"/>
+    <sheet name="table_for_paper_aggr" sheetId="4" r:id="rId3"/>
+    <sheet name="analysis_gender" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">analysis_gender!$A$1:$Q$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">analysis_gender!$A$1:$Q$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">analysis_stim!$A$1:$Q$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">analysis_stim!$B$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="137">
   <si>
     <t>PARAM</t>
   </si>
@@ -421,13 +423,37 @@
   </si>
   <si>
     <t>RT median (ms)</t>
+  </si>
+  <si>
+    <t>Better / worse div. (BWD)</t>
+  </si>
+  <si>
+    <t>Pref. index (PI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial prob. </t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -465,6 +491,11 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Next Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next Regular"/>
     </font>
@@ -533,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -547,6 +578,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -579,6 +627,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,15 +956,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -928,7 +979,7 @@
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1085,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1138,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1191,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1244,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1297,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1350,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1403,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1456,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1509,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1562,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1615,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1668,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1721,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1774,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1829,7 +1880,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1933,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1986,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1988,7 +2039,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2092,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +2145,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2147,7 +2198,7 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2200,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2253,7 +2304,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2357,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2410,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2412,7 +2463,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2516,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2518,7 +2569,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2571,7 +2622,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2675,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2677,7 +2728,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2781,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2783,7 +2834,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2836,7 +2887,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +2940,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2942,7 +2993,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2995,7 +3046,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3048,7 +3099,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3101,7 +3152,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3154,7 +3205,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3258,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3311,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -3313,7 +3364,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3366,7 +3417,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3419,7 +3470,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3523,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3525,7 +3576,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3631,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3735,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +3788,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3790,7 +3841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3843,7 +3894,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3896,7 +3947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3949,7 +4000,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" hidden="1">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4002,7 +4053,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -4055,7 +4106,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -4108,7 +4159,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4161,7 +4212,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -4214,7 +4265,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4267,7 +4318,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4320,7 +4371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4373,7 +4424,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4426,7 +4477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4479,7 +4530,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4532,7 +4583,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4585,7 +4636,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4689,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4691,7 +4742,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4744,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4797,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4850,7 +4901,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4903,7 +4954,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4956,7 +5007,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -5009,7 +5060,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5062,7 +5113,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5166,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -5168,7 +5219,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5221,7 +5272,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5274,7 +5325,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5327,7 +5378,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -5380,7 +5431,7 @@
         <v>-0.53800000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -5433,7 +5484,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5486,7 +5537,7 @@
         <v>-0.46200000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -5539,7 +5590,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5645,7 +5696,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -5698,7 +5749,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5751,7 +5802,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5855,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5857,7 +5908,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -5910,7 +5961,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5963,7 +6014,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -6016,7 +6067,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" hidden="1">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -6070,7 +6121,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q97">
+  <autoFilter ref="A1:Q97" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="STIM_TYPE STIM_PARAM"/>
@@ -6181,14 +6232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -6197,7 +6248,7 @@
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="49" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>127</v>
       </c>
@@ -6214,7 +6265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -6231,7 +6282,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -6248,7 +6299,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -6265,7 +6316,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -6282,7 +6333,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -6299,7 +6350,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
@@ -6316,7 +6367,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -6333,7 +6384,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -6350,7 +6401,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -6367,7 +6418,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
@@ -6384,7 +6435,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -6401,7 +6452,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -6418,7 +6469,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="2" t="s">
         <v>123</v>
       </c>
@@ -6435,7 +6486,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -6452,7 +6503,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
@@ -6469,7 +6520,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
@@ -6486,7 +6537,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="1" t="s">
         <v>124</v>
       </c>
@@ -6503,7 +6554,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="1" t="s">
         <v>124</v>
       </c>
@@ -6520,7 +6571,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="2" t="s">
         <v>123</v>
       </c>
@@ -6537,7 +6588,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
@@ -6554,7 +6605,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
@@ -6571,7 +6622,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -6588,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="1" t="s">
         <v>124</v>
       </c>
@@ -6605,7 +6656,7 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="2" t="s">
         <v>123</v>
       </c>
@@ -6622,7 +6673,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="2" t="s">
         <v>123</v>
       </c>
@@ -6639,7 +6690,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="5" t="s">
         <v>123</v>
       </c>
@@ -6755,15 +6806,449 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E5EDD2-E284-7344-8117-D0FEDF68AE93}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48">
+      <c r="A1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>518</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>578</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>741</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>506</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>569</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>718</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12">
+        <v>872</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>608</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>683</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>690</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>553</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>630</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>783</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>512</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>602</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-0.36399999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <v>694</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-0.36399999999999999</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -6771,7 +7256,7 @@
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6827,7 +7312,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6880,7 +7365,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6933,7 +7418,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6986,7 +7471,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7039,7 +7524,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -7092,7 +7577,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7145,7 +7630,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7198,7 +7683,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7736,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -7304,7 +7789,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7357,7 +7842,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7410,7 +7895,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -7463,7 +7948,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -7516,7 +8001,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -7569,7 +8054,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +8107,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -7675,7 +8160,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -7728,7 +8213,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -7781,7 +8266,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7834,7 +8319,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7887,7 +8372,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -7940,7 +8425,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -7993,7 +8478,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -8046,7 +8531,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -8099,7 +8584,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -8152,7 +8637,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -8205,7 +8690,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -8258,7 +8743,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -8311,7 +8796,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -8364,7 +8849,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8417,7 +8902,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8470,7 +8955,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -8523,7 +9008,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -8576,7 +9061,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -8629,7 +9114,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -8682,7 +9167,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -8735,7 +9220,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -8788,7 +9273,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -8841,7 +9326,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -8894,7 +9379,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8947,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -9000,7 +9485,7 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -9053,7 +9538,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -9106,7 +9591,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -9159,7 +9644,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -9216,7 +9701,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -9269,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -9326,7 +9811,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -9379,7 +9864,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -9436,7 +9921,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -9489,7 +9974,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -9546,7 +10031,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -9599,7 +10084,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -9656,7 +10141,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -9709,7 +10194,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -9766,7 +10251,7 @@
         <v>0.44199999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -9819,7 +10304,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -9876,7 +10361,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -9929,7 +10414,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -9986,7 +10471,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -10039,7 +10524,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -10096,7 +10581,7 @@
         <v>0.22699999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -10149,7 +10634,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -10206,7 +10691,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -10259,7 +10744,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -10316,7 +10801,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -10369,7 +10854,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -10426,7 +10911,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -10479,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -10536,7 +11021,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -10589,7 +11074,7 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -10646,7 +11131,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -10699,7 +11184,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -10756,7 +11241,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -10809,7 +11294,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -10866,7 +11351,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -10919,7 +11404,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -10976,7 +11461,7 @@
         <v>0.32300000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -11029,7 +11514,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -11086,7 +11571,7 @@
         <v>0.28800000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -11139,7 +11624,7 @@
         <v>-0.53800000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -11196,7 +11681,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -11249,7 +11734,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -11306,7 +11791,7 @@
         <v>0.16200000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -11359,7 +11844,7 @@
         <v>-0.46200000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -11416,7 +11901,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -11469,7 +11954,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -11526,7 +12011,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -11579,7 +12064,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -11636,7 +12121,7 @@
         <v>2.3000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -11689,7 +12174,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -11746,7 +12231,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -11799,7 +12284,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -11856,7 +12341,7 @@
         <v>1.8999999999999989E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -11909,7 +12394,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -11966,7 +12451,7 @@
         <v>0.11200000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -12020,7 +12505,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q97">
+  <autoFilter ref="A1:Q97" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="STIM_TYPE STIM_PARAM gender"/>
